--- a/numeritos.xlsx
+++ b/numeritos.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apa\Dropbox\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA952414-9C3E-47B2-A4D1-EAE2E8DEE29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3177E8-81EE-4A21-B0E7-C9280C2DE15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11835" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="8" r:id="rId2"/>
-    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja1 (3)" sheetId="6" r:id="rId4"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId5"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId7"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId8"/>
-    <sheet name="Hoja6" sheetId="9" r:id="rId9"/>
+    <sheet name="Hoja8" sheetId="10" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="8" r:id="rId3"/>
+    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja1 (3)" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId7"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId8"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId9"/>
+    <sheet name="Hoja6" sheetId="9" r:id="rId10"/>
+    <sheet name="Hoja9" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="752">
   <si>
     <t>[1, 2, 3, 4] [2, 1, 4, 3]</t>
   </si>
@@ -2575,12 +2577,15 @@
   <si>
     <t>[4, 3, 2, 1]</t>
   </si>
+  <si>
+    <t>Algoritmo para calcular la vista de una fila</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2627,8 +2632,13 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2701,6 +2711,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2744,7 +2760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2788,6 +2804,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3181,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -4184,7 +4204,1261 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA68A8A-7583-43B7-9D99-935E8662EF25}">
+  <dimension ref="B3:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D3" t="b">
+        <f>B3=C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" ref="D4:D26" si="0">B4=C4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97162D35-4227-48FE-A590-A64120064961}">
+  <dimension ref="C2:Y20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5703125" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="3:25">
+      <c r="C2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="3:25" ht="14.25">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="24">
+        <f>SUM(M5:O5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f>--(R5&gt;Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>--(S5&gt;R5)</f>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f>--(T5&gt;S5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <f>MAX($V5:V5)</f>
+        <v>3</v>
+      </c>
+      <c r="R5" s="23">
+        <f>MAX($V5:W5)</f>
+        <v>3</v>
+      </c>
+      <c r="S5" s="23">
+        <f>MAX($V5:X5)</f>
+        <v>4</v>
+      </c>
+      <c r="T5" s="23">
+        <f>MAX($V5:Y5)</f>
+        <v>4</v>
+      </c>
+      <c r="U5" s="2">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>3</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" ht="14.25">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" ref="K6:K8" si="0">SUM(M6:O6)+1</f>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>--(R6&gt;Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>--(S6&gt;R6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>--(T6&gt;S6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <f>MAX($V6:V6)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="23">
+        <f>MAX($V6:W6)</f>
+        <v>4</v>
+      </c>
+      <c r="S6" s="23">
+        <f>MAX($V6:X6)</f>
+        <v>4</v>
+      </c>
+      <c r="T6" s="23">
+        <f>MAX($V6:Y6)</f>
+        <v>4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>4</v>
+      </c>
+      <c r="X6" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" ht="14.25">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>--(R7&gt;Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>--(S7&gt;R7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>--(T7&gt;S7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <f>MAX($V7:V7)</f>
+        <v>4</v>
+      </c>
+      <c r="R7" s="23">
+        <f>MAX($V7:W7)</f>
+        <v>4</v>
+      </c>
+      <c r="S7" s="23">
+        <f>MAX($V7:X7)</f>
+        <v>4</v>
+      </c>
+      <c r="T7" s="23">
+        <f>MAX($V7:Y7)</f>
+        <v>4</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>4</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" ht="14.25">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>--(R8&gt;Q8)</f>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>--(S8&gt;R8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>--(T8&gt;S8)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="23">
+        <f>MAX($V8:V8)</f>
+        <v>2</v>
+      </c>
+      <c r="R8" s="23">
+        <f>MAX($V8:W8)</f>
+        <v>3</v>
+      </c>
+      <c r="S8" s="23">
+        <f>MAX($V8:X8)</f>
+        <v>3</v>
+      </c>
+      <c r="T8" s="23">
+        <f>MAX($V8:Y8)</f>
+        <v>4</v>
+      </c>
+      <c r="U8" s="2">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2</v>
+      </c>
+      <c r="W8" s="3">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" ht="14.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="K9" s="24">
+        <f t="shared" ref="K9:K12" si="1">SUM(M9:O9)+1</f>
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M12" si="2">--(R9&gt;Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N12" si="3">--(S9&gt;R9)</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O12" si="4">--(T9&gt;S9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
+        <f>MAX($V9:V9)</f>
+        <v>3</v>
+      </c>
+      <c r="R9" s="23">
+        <f>MAX($V9:W9)</f>
+        <v>3</v>
+      </c>
+      <c r="S9" s="23">
+        <f>MAX($V9:X9)</f>
+        <v>4</v>
+      </c>
+      <c r="T9" s="23">
+        <f>MAX($V9:Y9)</f>
+        <v>4</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2</v>
+      </c>
+      <c r="V9" s="3">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" ht="14.25">
+      <c r="K10" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <f>MAX($V10:V10)</f>
+        <v>2</v>
+      </c>
+      <c r="R10" s="23">
+        <f>MAX($V10:W10)</f>
+        <v>4</v>
+      </c>
+      <c r="S10" s="23">
+        <f>MAX($V10:X10)</f>
+        <v>4</v>
+      </c>
+      <c r="T10" s="23">
+        <f>MAX($V10:Y10)</f>
+        <v>4</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2</v>
+      </c>
+      <c r="V10" s="3">
+        <v>2</v>
+      </c>
+      <c r="W10" s="3">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" ht="14.25">
+      <c r="K11" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
+        <f>MAX($V11:V11)</f>
+        <v>4</v>
+      </c>
+      <c r="R11" s="23">
+        <f>MAX($V11:W11)</f>
+        <v>4</v>
+      </c>
+      <c r="S11" s="23">
+        <f>MAX($V11:X11)</f>
+        <v>4</v>
+      </c>
+      <c r="T11" s="23">
+        <f>MAX($V11:Y11)</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>4</v>
+      </c>
+      <c r="W11" s="3">
+        <v>2</v>
+      </c>
+      <c r="X11" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" ht="14.25">
+      <c r="K12" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="23">
+        <f>MAX($V12:V12)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="23">
+        <f>MAX($V12:W12)</f>
+        <v>3</v>
+      </c>
+      <c r="S12" s="23">
+        <f>MAX($V12:X12)</f>
+        <v>3</v>
+      </c>
+      <c r="T12" s="23">
+        <f>MAX($V12:Y12)</f>
+        <v>4</v>
+      </c>
+      <c r="U12" s="2">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" ht="14.25">
+      <c r="K13" s="24">
+        <f t="shared" ref="K13:K17" si="5">SUM(M13:O13)+1</f>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M17" si="6">--(R13&gt;Q13)</f>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N17" si="7">--(S13&gt;R13)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O17" si="8">--(T13&gt;S13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="23">
+        <f>MAX($V13:V13)</f>
+        <v>2</v>
+      </c>
+      <c r="R13" s="23">
+        <f>MAX($V13:W13)</f>
+        <v>4</v>
+      </c>
+      <c r="S13" s="23">
+        <f>MAX($V13:X13)</f>
+        <v>4</v>
+      </c>
+      <c r="T13" s="23">
+        <f>MAX($V13:Y13)</f>
+        <v>4</v>
+      </c>
+      <c r="U13" s="2">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <f>Y9</f>
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <f>X9</f>
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <f>W9</f>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <f>V9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" ht="14.25">
+      <c r="K14" s="24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="23">
+        <f>MAX($V14:V14)</f>
+        <v>3</v>
+      </c>
+      <c r="R14" s="23">
+        <f>MAX($V14:W14)</f>
+        <v>3</v>
+      </c>
+      <c r="S14" s="23">
+        <f>MAX($V14:X14)</f>
+        <v>4</v>
+      </c>
+      <c r="T14" s="23">
+        <f>MAX($V14:Y14)</f>
+        <v>4</v>
+      </c>
+      <c r="U14" s="2">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V14:V16" si="9">Y10</f>
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W16" si="10">X10</f>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X16" si="11">W10</f>
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ref="Y14:Y16" si="12">V10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" ht="14.25">
+      <c r="K15" s="24">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="23">
+        <f>MAX($V15:V15)</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="23">
+        <f>MAX($V15:W15)</f>
+        <v>3</v>
+      </c>
+      <c r="S15" s="23">
+        <f>MAX($V15:X15)</f>
+        <v>3</v>
+      </c>
+      <c r="T15" s="23">
+        <f>MAX($V15:Y15)</f>
+        <v>4</v>
+      </c>
+      <c r="U15" s="2">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" ht="14.25">
+      <c r="K16" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="23">
+        <f>MAX($V16:V16)</f>
+        <v>4</v>
+      </c>
+      <c r="R16" s="23">
+        <f>MAX($V16:W16)</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="23">
+        <f>MAX($V16:X16)</f>
+        <v>4</v>
+      </c>
+      <c r="T16" s="23">
+        <f>MAX($V16:Y16)</f>
+        <v>4</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="11:25" ht="14.25">
+      <c r="K17" s="24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="23">
+        <f>MAX($V17:V17)</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="23">
+        <f>MAX($V17:W17)</f>
+        <v>4</v>
+      </c>
+      <c r="S17" s="23">
+        <f>MAX($V17:X17)</f>
+        <v>4</v>
+      </c>
+      <c r="T17" s="23">
+        <f>MAX($V17:Y17)</f>
+        <v>4</v>
+      </c>
+      <c r="U17" s="2">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <f>Y5</f>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f>X5</f>
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <f>W5</f>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <f>V5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="11:25" ht="14.25">
+      <c r="K18" s="24">
+        <f t="shared" ref="K18:K20" si="13">SUM(M18:O18)+1</f>
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M20" si="14">--(R18&gt;Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N20" si="15">--(S18&gt;R18)</f>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O20" si="16">--(T18&gt;S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="23">
+        <f>MAX($V18:V18)</f>
+        <v>3</v>
+      </c>
+      <c r="R18" s="23">
+        <f>MAX($V18:W18)</f>
+        <v>3</v>
+      </c>
+      <c r="S18" s="23">
+        <f>MAX($V18:X18)</f>
+        <v>4</v>
+      </c>
+      <c r="T18" s="23">
+        <f>MAX($V18:Y18)</f>
+        <v>4</v>
+      </c>
+      <c r="U18" s="2">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18:V20" si="17">Y6</f>
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W20" si="18">X6</f>
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X20" si="19">W6</f>
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ref="Y18:Y20" si="20">V6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="11:25" ht="14.25">
+      <c r="K19" s="24">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="23">
+        <f>MAX($V19:V19)</f>
+        <v>2</v>
+      </c>
+      <c r="R19" s="23">
+        <f>MAX($V19:W19)</f>
+        <v>3</v>
+      </c>
+      <c r="S19" s="23">
+        <f>MAX($V19:X19)</f>
+        <v>3</v>
+      </c>
+      <c r="T19" s="23">
+        <f>MAX($V19:Y19)</f>
+        <v>4</v>
+      </c>
+      <c r="U19" s="2">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="11:25" ht="14.25">
+      <c r="K20" s="24">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="23">
+        <f>MAX($V20:V20)</f>
+        <v>4</v>
+      </c>
+      <c r="R20" s="23">
+        <f>MAX($V20:W20)</f>
+        <v>4</v>
+      </c>
+      <c r="S20" s="23">
+        <f>MAX($V20:X20)</f>
+        <v>4</v>
+      </c>
+      <c r="T20" s="23">
+        <f>MAX($V20:Y20)</f>
+        <v>4</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA071996-544F-4896-857B-797A6E1847D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1EF85B-706D-43B4-806E-D80FC6233A62}">
   <dimension ref="B2:H37"/>
   <sheetViews>
@@ -4460,7 +5734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EE750C-9E88-42BC-8DF2-3D7CC179BDB0}">
   <dimension ref="B1:P36"/>
   <sheetViews>
@@ -5550,7 +6824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750A7BB3-BFE9-4EAF-9B0D-50E710E13576}">
   <dimension ref="B1:K19"/>
   <sheetViews>
@@ -5805,7 +7079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B41E7B-B9BE-4FB0-9511-F472C165D7AA}">
   <dimension ref="A2:D580"/>
   <sheetViews>
@@ -11754,7 +13028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A8BD85-D9AC-4C1D-B345-1C65856C32A9}">
   <dimension ref="B3:C220"/>
   <sheetViews>
@@ -13503,7 +14777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F79FD3-7B09-470F-ADBD-1A0CE7BFC0D9}">
   <dimension ref="B4:N32"/>
   <sheetViews>
@@ -13812,7 +15086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE26053-CFD5-40A1-BBEE-E6A0B906D485}">
   <dimension ref="B5:G31"/>
   <sheetViews>
@@ -14274,309 +15548,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA68A8A-7583-43B7-9D99-935E8662EF25}">
-  <dimension ref="B3:D26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="D3" t="b">
-        <f>B3=C3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="D4" t="b">
-        <f t="shared" ref="D4:D26" si="0">B4=C4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="D5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="D6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="D7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="D8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="D9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="D10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="D11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="D12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="D13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="D14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="D15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="D16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="D17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="D18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="D19" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="D20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="D21" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="D22" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D23" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="D24" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="D25" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="D26" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>